--- a/core/src/main/resources/Sanity.xlsx
+++ b/core/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\core\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED78C164-D6C0-47F5-A66B-041672D65E07}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{455FB86F-AD61-497B-975C-731F12C1C1D6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>ServiceTests//GradeServices.xlsx</t>
+  </si>
+  <si>
+    <t>GradeServices.create</t>
   </si>
 </sst>
 </file>
@@ -462,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -582,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>

--- a/core/src/main/resources/Sanity.xlsx
+++ b/core/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\core\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{455FB86F-AD61-497B-975C-731F12C1C1D6}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{038BC903-EFA0-4C5D-BE01-0C23FB0AADF6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>TCID</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>GradeServices.create</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>updatedGrade</t>
+  </si>
+  <si>
+    <t>GradeServices.update</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>deleteGrade</t>
+  </si>
+  <si>
+    <t>GradeServices.delete</t>
   </si>
 </sst>
 </file>
@@ -463,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -597,6 +615,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/core/src/main/resources/Sanity.xlsx
+++ b/core/src/main/resources/Sanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\core\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{038BC903-EFA0-4C5D-BE01-0C23FB0AADF6}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A120A604-514B-43F8-BC1E-1B1758C551EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>TCID</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>GradeServices.delete</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>BusinessUnitServies</t>
+  </si>
+  <si>
+    <t>createBusinessUnit</t>
+  </si>
+  <si>
+    <t>BusinessUnit.create</t>
+  </si>
+  <si>
+    <t>ServiceTests//BusinessUnitServices.xlsx</t>
   </si>
 </sst>
 </file>
@@ -481,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -661,6 +676,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/core/src/main/resources/Sanity.xlsx
+++ b/core/src/main/resources/Sanity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\core-automation\Automation_Project\core\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\core\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{F4E1FA73-FC22-4336-8B14-B06ADA0EB5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A120A604-514B-43F8-BC1E-1B1758C551EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251F596-FDC0-4062-8D4D-06C47CB0BBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseMaster" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>ServiceTests//BusinessUnitServices.xlsx</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DivisionServices</t>
+  </si>
+  <si>
+    <t>DivisionServices.create</t>
+  </si>
+  <si>
+    <t>ServiceTests//DummySheet.xlsx</t>
   </si>
 </sst>
 </file>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -699,6 +711,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/core/src/main/resources/Sanity.xlsx
+++ b/core/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\core\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251F596-FDC0-4062-8D4D-06C47CB0BBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C56B5E-0A50-428F-8F86-58FD0016D0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>TCID</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>ServiceTests//DummySheet.xlsx</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>JDServices</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>JDservices.CRUD</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>LocationsServices.CRUD</t>
+  </si>
+  <si>
+    <t>LocationsServices</t>
   </si>
 </sst>
 </file>
@@ -508,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -734,6 +755,52 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
